--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171035.360522647</v>
+        <v>3168783.28081144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>69.54748623553667</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974244</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.92646403994941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4808534209815</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>62.40697986446754</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>13.19700989105971</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>154.626861758298</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.2840235835277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>53.26309598425069</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>262.1621171176416</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.14939830226075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2893995353463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>253.630393765991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.06198119183937</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.9393756113372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>869.0763550278969</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>869.0763550278969</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>483.2881024296526</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>476.3426016804491</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>798.5065461617548</v>
+        <v>560.4166776763443</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>223.7776581231564</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101416</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>742.065142506584</v>
       </c>
       <c r="Y4" t="n">
-        <v>798.5065461617548</v>
+        <v>742.065142506584</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968308</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>869.0763550278959</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>510.8106564211454</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008241</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032429</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4659,7 +4659,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.154327815684</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.164776917667</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223196</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>883.8708262827847</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>525.6051276760343</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>139.81687507779</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8713743285866</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>121.8393282139871</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1681.275341595215</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1392.172474720858</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1137.487986514971</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>848.0708164780106</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>848.0708164780106</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5021,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192667</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404214</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280856</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>456.5257005456925</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>456.5257005456925</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>289.3296012605725</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>147.6177701027705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.442480416598</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,13 +6212,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>555.8158034133954</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
         <v>697.5276345711974</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>746.1673476194629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>596.0507082071272</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1376146247341</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>301.2476671268237</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,25 +7634,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.00274033431484</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.02235727160257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556067</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6341900408531</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.8926045706001</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>100.4621571004295</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.8926045706001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314485</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179343</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.0322517935</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179355</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26454,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808827</v>
+        <v>-808621.2046808824</v>
       </c>
       <c r="C6" t="n">
+        <v>520123.5410467095</v>
+      </c>
+      <c r="D6" t="n">
         <v>520123.5410467098</v>
       </c>
-      <c r="D6" t="n">
-        <v>520123.5410467101</v>
-      </c>
       <c r="E6" t="n">
-        <v>268551.2508456995</v>
+        <v>268516.512920264</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276194</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530547</v>
+        <v>593928.974727619</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.974727619</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276187</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557773</v>
+        <v>376397.7723303418</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276191</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.6847175427</v>
+        <v>508873.9467921073</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276194</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.9747276192</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26790,25 +26790,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>341.3742394179168</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009567</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.6581893121454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.449516651280248</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1160184721235</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>281.4107544962608</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>64.92208751787123</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28567,19 +28567,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>764.2478901092629</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9501404413636</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>581.2949959490413</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,10 +34226,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34369,13 +34369,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175684</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>632.9061780259296</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>295.6084283580303</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>442.7406161691672</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38017,13 +38017,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
